--- a/data/trans_bre/P0901-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 9,78</t>
+          <t>0,03; 9,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,13</t>
+          <t>1,24; 10,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,35</t>
+          <t>-1,96; 7,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 8,21</t>
+          <t>1,05; 8,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 152,38</t>
+          <t>-1,54; 143,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 219,5</t>
+          <t>8,94; 218,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 99,15</t>
+          <t>-18,43; 100,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,88; 122,65</t>
+          <t>9,97; 116,24</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,7</t>
+          <t>0,61; 8,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 4,91</t>
+          <t>-5,07; 5,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 9,19</t>
+          <t>0,57; 9,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 7,67</t>
+          <t>-0,04; 7,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 234,97</t>
+          <t>7,29; 225,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,46; 51,67</t>
+          <t>-37,07; 57,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 173,2</t>
+          <t>4,15; 189,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 92,51</t>
+          <t>-0,54; 88,57</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 19,22</t>
+          <t>5,75; 19,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 12,61</t>
+          <t>0,92; 12,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 20,26</t>
+          <t>4,67; 19,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 26,12</t>
+          <t>6,64; 27,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,43; 233,55</t>
+          <t>50,73; 231,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 110,85</t>
+          <t>4,92; 99,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,9; 229,42</t>
+          <t>37,62; 217,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,86; 650,46</t>
+          <t>37,56; 634,01</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,88</t>
+          <t>0,37; 6,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,98</t>
+          <t>-2,02; 5,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 6,41</t>
+          <t>0,23; 6,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 0,65</t>
+          <t>-11,75; 0,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 68,09</t>
+          <t>3,12; 68,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 38,52</t>
+          <t>-13,46; 38,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 60,98</t>
+          <t>1,82; 60,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,39; 4,05</t>
+          <t>-58,07; 4,52</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 8,68</t>
+          <t>-0,6; 8,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 18,67</t>
+          <t>9,95; 18,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 14,26</t>
+          <t>5,99; 14,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 10,32</t>
+          <t>-2,11; 10,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 97,8</t>
+          <t>-5,28; 91,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,08; 160,33</t>
+          <t>59,76; 162,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,77; 110,02</t>
+          <t>34,54; 112,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 60,8</t>
+          <t>-8,19; 63,41</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,32; 19,09</t>
+          <t>13,16; 19,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,82; 23,16</t>
+          <t>15,52; 23,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,56; 24,32</t>
+          <t>17,39; 24,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,79; 25,63</t>
+          <t>18,76; 25,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>253,27; 1125,97</t>
+          <t>244,85; 1180,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>188,43; 808,83</t>
+          <t>185,59; 916,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>303,28; 1982,98</t>
+          <t>299,66; 1778,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>336,53; 2104,08</t>
+          <t>366,06; 2254,28</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 8,9</t>
+          <t>5,65; 8,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,97; 10,63</t>
+          <t>6,9; 10,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,59</t>
+          <t>7,3; 10,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,41</t>
+          <t>2,95; 9,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>57,8; 107,47</t>
+          <t>58,25; 105,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,22; 95,51</t>
+          <t>53,91; 95,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>62,05; 107,31</t>
+          <t>64,94; 112,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,87; 89,95</t>
+          <t>24,29; 89,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P0901-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
